--- a/설계 발표/기능정의서.xlsx
+++ b/설계 발표/기능정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team2\설계 발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC66496A-C688-47E2-AD28-CADAA5D63725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2A3737-4D0B-4BFD-8F5E-76EA3CC9226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92144B2C-0778-4F78-B705-BE4A408EA107}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92144B2C-0778-4F78-B705-BE4A408EA107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1429,7 +1429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1502,6 +1502,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1512,22 +1530,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2136,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DAB343-4D63-4871-A1DE-8C259DE062FA}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2171,7 +2174,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -2183,26 +2186,26 @@
       <c r="D2" s="22">
         <v>1</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="30">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="13" t="s">
         <v>85</v>
       </c>
@@ -2217,8 +2220,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -2227,36 +2230,36 @@
       <c r="D5" s="22">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="30">
         <v>4</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="23"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="30">
         <v>12</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="28" t="s">
         <v>99</v>
       </c>
       <c r="G7" t="s">
@@ -2267,15 +2270,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -2295,7 +2298,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
         <v>87</v>
@@ -2311,7 +2314,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
@@ -2329,7 +2332,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="21"/>
       <c r="C12" s="15" t="s">
         <v>60</v>
@@ -2337,98 +2340,98 @@
       <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="30">
         <v>4</v>
       </c>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="22">
         <v>1</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="23"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="22">
         <v>1</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="23"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="15"/>
       <c r="D20" s="11"/>
       <c r="E20" s="17"/>
@@ -2437,7 +2440,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -2453,7 +2456,7 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="30"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="21"/>
       <c r="C22" s="15" t="s">
         <v>28</v>
@@ -2467,7 +2470,7 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="30"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="21"/>
       <c r="C23" s="15" t="s">
         <v>67</v>
@@ -2479,7 +2482,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="30"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2497,7 +2500,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A25" s="31"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
@@ -2518,7 +2521,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -2538,7 +2541,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="30"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="21"/>
       <c r="C27" s="15" t="s">
         <v>9</v>
@@ -2554,7 +2557,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="31"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="21"/>
       <c r="C28" s="15" t="s">
         <v>69</v>
@@ -2566,7 +2569,7 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -2582,7 +2585,7 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="30"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="21"/>
       <c r="C30" s="15" t="s">
         <v>73</v>
@@ -2594,7 +2597,7 @@
       <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="30"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="21"/>
       <c r="C31" s="15" t="s">
         <v>74</v>
@@ -2606,7 +2609,7 @@
       <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="21"/>
       <c r="C32" s="15" t="s">
         <v>75</v>
@@ -2618,7 +2621,7 @@
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="30"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="21" t="s">
         <v>76</v>
       </c>
@@ -2632,7 +2635,7 @@
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="30"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="21"/>
       <c r="C34" s="15" t="s">
         <v>106</v>
@@ -2644,7 +2647,7 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="30"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
         <v>107</v>
@@ -2656,7 +2659,7 @@
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="30"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
         <v>108</v>
@@ -2668,7 +2671,7 @@
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="30"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="21"/>
       <c r="C37" s="15" t="s">
         <v>109</v>
@@ -2681,6 +2684,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B13:B20"/>
     <mergeCell ref="A9:A20"/>
@@ -2697,19 +2713,6 @@
     <mergeCell ref="A29:A37"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B37"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E12:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계 발표/기능정의서.xlsx
+++ b/설계 발표/기능정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team2\설계 발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2A3737-4D0B-4BFD-8F5E-76EA3CC9226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529DBD7-E139-43EA-955A-1B7771E1CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92144B2C-0778-4F78-B705-BE4A408EA107}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92144B2C-0778-4F78-B705-BE4A408EA107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1502,6 +1502,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1513,24 +1531,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1853,15 +1853,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="198" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
@@ -1899,7 +1899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="198" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
@@ -1909,7 +1909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
         <v>44</v>
@@ -1921,7 +1921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
@@ -1931,7 +1931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
@@ -1941,7 +1941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="295.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="243.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="231" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="6" t="s">
@@ -1965,7 +1965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1977,7 +1977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>30</v>
@@ -1989,7 +1989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="174" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="6" t="s">
@@ -1999,7 +1999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="295.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="365.4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
@@ -2023,7 +2023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>6</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="174" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
@@ -2047,7 +2047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="2" t="s">
@@ -2057,7 +2057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="226.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
@@ -2067,7 +2067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="243.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="231" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>22</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="261" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="6" t="s">
@@ -2091,7 +2091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="198" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="20" t="s">
         <v>52</v>
@@ -2103,7 +2103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="198" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
@@ -2139,21 +2139,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DAB343-4D63-4871-A1DE-8C259DE062FA}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F11:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="27.796875" customWidth="1"/>
-    <col min="3" max="3" width="33.19921875" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
     <col min="4" max="4" width="4.5" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" customWidth="1"/>
-    <col min="6" max="6" width="96.796875" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="96.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>110</v>
       </c>
@@ -2173,8 +2173,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -2186,26 +2186,26 @@
       <c r="D2" s="22">
         <v>1</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="24">
         <v>2</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="13" t="s">
         <v>85</v>
       </c>
@@ -2219,9 +2219,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="30" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -2230,36 +2230,36 @@
       <c r="D5" s="22">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="24">
         <v>4</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="23"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="24">
         <v>12</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>99</v>
       </c>
       <c r="G7" t="s">
@@ -2269,16 +2269,16 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -2297,8 +2297,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
         <v>87</v>
@@ -2313,8 +2313,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
       <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
@@ -2327,12 +2327,12 @@
       <c r="E11" s="14">
         <v>8</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
       <c r="B12" s="21"/>
       <c r="C12" s="15" t="s">
         <v>60</v>
@@ -2340,98 +2340,98 @@
       <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="24">
         <v>4</v>
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="25"/>
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="32"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="22">
         <v>1</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="23"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="22">
         <v>1</v>
       </c>
-      <c r="E17" s="32"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="23"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="15"/>
       <c r="D20" s="11"/>
       <c r="E20" s="17"/>
@@ -2439,8 +2439,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -2455,8 +2455,8 @@
       </c>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
       <c r="B22" s="21"/>
       <c r="C22" s="15" t="s">
         <v>28</v>
@@ -2469,8 +2469,8 @@
       </c>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
       <c r="B23" s="21"/>
       <c r="C23" s="15" t="s">
         <v>67</v>
@@ -2481,8 +2481,8 @@
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="25"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2499,8 +2499,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
       <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
@@ -2520,8 +2520,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -2540,8 +2540,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="25"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
       <c r="B27" s="21"/>
       <c r="C27" s="15" t="s">
         <v>9</v>
@@ -2556,8 +2556,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="26"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
       <c r="B28" s="21"/>
       <c r="C28" s="15" t="s">
         <v>69</v>
@@ -2568,8 +2568,8 @@
       </c>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -2584,8 +2584,8 @@
       <c r="E29" s="14"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="25"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
       <c r="B30" s="21"/>
       <c r="C30" s="15" t="s">
         <v>73</v>
@@ -2596,8 +2596,8 @@
       <c r="E30" s="14"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="25"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
       <c r="B31" s="21"/>
       <c r="C31" s="15" t="s">
         <v>74</v>
@@ -2608,8 +2608,8 @@
       <c r="E31" s="14"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
       <c r="B32" s="21"/>
       <c r="C32" s="15" t="s">
         <v>75</v>
@@ -2620,8 +2620,8 @@
       <c r="E32" s="14"/>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="25"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
       <c r="B33" s="21" t="s">
         <v>76</v>
       </c>
@@ -2634,8 +2634,8 @@
       <c r="E33" s="13"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
       <c r="B34" s="21"/>
       <c r="C34" s="15" t="s">
         <v>106</v>
@@ -2646,8 +2646,8 @@
       <c r="E34" s="13"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
         <v>107</v>
@@ -2658,8 +2658,8 @@
       <c r="E35" s="13"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
         <v>108</v>
@@ -2670,8 +2670,8 @@
       <c r="E36" s="13"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
       <c r="B37" s="21"/>
       <c r="C37" s="15" t="s">
         <v>109</v>
@@ -2684,19 +2684,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B13:B20"/>
     <mergeCell ref="A9:A20"/>
@@ -2713,6 +2700,19 @@
     <mergeCell ref="A29:A37"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B37"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E12:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계 발표/기능정의서.xlsx
+++ b/설계 발표/기능정의서.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team2\설계 발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltmd\source\repos\GoodeeTeamProject2\설계 발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529DBD7-E139-43EA-955A-1B7771E1CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92144B2C-0778-4F78-B705-BE4A408EA107}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1184,26 +1183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회사 정보(품목, 공정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산률 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업장 가동 현황 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월별 스케쥴 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1222,12 +1201,27 @@
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목별 수주현황 조회</t>
+  </si>
+  <si>
+    <t>작업지시 실적 조회</t>
+  </si>
+  <si>
+    <t>작업지시 종합 실적 조회</t>
+  </si>
+  <si>
+    <t>불량 내역 조회</t>
+  </si>
+  <si>
+    <t>비가동 내역 조회</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -1502,6 +1496,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1509,27 +1524,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1846,7 +1840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BFFF7C-A93E-460A-A6FF-3C506817AC5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2136,11 +2130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DAB343-4D63-4871-A1DE-8C259DE062FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F11:F32"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2155,26 +2149,26 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -2186,26 +2180,26 @@
       <c r="D2" s="22">
         <v>1</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="31">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="13" t="s">
         <v>85</v>
       </c>
@@ -2220,8 +2214,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -2230,36 +2224,36 @@
       <c r="D5" s="22">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="31">
         <v>4</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="23"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="31">
         <v>12</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="28" t="s">
         <v>99</v>
       </c>
       <c r="G7" t="s">
@@ -2270,15 +2264,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -2298,7 +2292,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
         <v>87</v>
@@ -2314,7 +2308,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
@@ -2332,7 +2326,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="21"/>
       <c r="C12" s="15" t="s">
         <v>60</v>
@@ -2340,98 +2334,98 @@
       <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="31">
         <v>4</v>
       </c>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="22">
         <v>1</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="23"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="22">
         <v>1</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="23"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="15"/>
       <c r="D20" s="11"/>
       <c r="E20" s="17"/>
@@ -2440,7 +2434,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -2456,7 +2450,7 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="21"/>
       <c r="C22" s="15" t="s">
         <v>28</v>
@@ -2470,7 +2464,7 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="21"/>
       <c r="C23" s="15" t="s">
         <v>67</v>
@@ -2482,7 +2476,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2494,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
@@ -2521,7 +2515,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -2541,7 +2535,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="21"/>
       <c r="C27" s="15" t="s">
         <v>9</v>
@@ -2557,7 +2551,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="21"/>
       <c r="C28" s="15" t="s">
         <v>69</v>
@@ -2569,7 +2563,7 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -2585,7 +2579,7 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="21"/>
       <c r="C30" s="15" t="s">
         <v>73</v>
@@ -2597,7 +2591,7 @@
       <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="21"/>
       <c r="C31" s="15" t="s">
         <v>74</v>
@@ -2609,7 +2603,7 @@
       <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="21"/>
       <c r="C32" s="15" t="s">
         <v>75</v>
@@ -2621,12 +2615,12 @@
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
@@ -2635,10 +2629,10 @@
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="21"/>
       <c r="C34" s="15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
@@ -2647,10 +2641,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D35" s="11">
         <v>1</v>
@@ -2659,10 +2653,10 @@
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D36" s="11">
         <v>1</v>
@@ -2671,10 +2665,10 @@
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="21"/>
       <c r="C37" s="15" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -2684,6 +2678,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B13:B20"/>
     <mergeCell ref="A9:A20"/>
@@ -2700,19 +2707,6 @@
     <mergeCell ref="A29:A37"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B37"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E12:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
